--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>22p</t>
   </si>
@@ -33,9 +33,6 @@
     <t>0.01uF</t>
   </si>
   <si>
-    <t>Capacitors_THT:C_Disc_D6.0mm_W4.4mm_P5.00mm</t>
-  </si>
-  <si>
     <t>0.33uF</t>
   </si>
   <si>
@@ -45,51 +42,12 @@
     <t xml:space="preserve">    F1</t>
   </si>
   <si>
-    <t>Fuse</t>
-  </si>
-  <si>
-    <t>Library:MyBladeFuse</t>
-  </si>
-  <si>
-    <t>Connectors_Terminal_Blocks:TerminalBlock_Altech_AK300-2_P5.00mm</t>
-  </si>
-  <si>
     <t xml:space="preserve">    J5</t>
   </si>
   <si>
-    <t>Pin_Headers:Pin_Header_Straight_2x03_Pitch2.54mm</t>
-  </si>
-  <si>
-    <t>&gt;  Q1-Q3</t>
-  </si>
-  <si>
     <t xml:space="preserve">    R1</t>
   </si>
   <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>&gt;  R3-R5</t>
-  </si>
-  <si>
-    <t>150k</t>
-  </si>
-  <si>
-    <t>&gt;  R6-R8, R21-R23</t>
-  </si>
-  <si>
-    <t>&gt;  R10-R12</t>
-  </si>
-  <si>
-    <t>Resistors_THT:R_Axial_DIN0414_L11.9mm_D4.5mm_P15.24mm_Horizontal</t>
-  </si>
-  <si>
-    <t>&gt;  R13-R15</t>
-  </si>
-  <si>
-    <t>&gt;  R16-R18</t>
-  </si>
-  <si>
     <t xml:space="preserve">    SW1</t>
   </si>
   <si>
@@ -105,9 +63,6 @@
     <t xml:space="preserve">    Y1</t>
   </si>
   <si>
-    <t>16MHz</t>
-  </si>
-  <si>
     <t>LED_D3.0mm</t>
   </si>
   <si>
@@ -123,9 +78,6 @@
     <t>C7-C9</t>
   </si>
   <si>
-    <t xml:space="preserve">    J1 - J4; J - J10</t>
-  </si>
-  <si>
     <t>Button 6х6</t>
   </si>
   <si>
@@ -148,16 +100,96 @@
   </si>
   <si>
     <t>TO-220-AB</t>
+  </si>
+  <si>
+    <t>220V 0.5A</t>
+  </si>
+  <si>
+    <t>MF02S84-0500</t>
+  </si>
+  <si>
+    <t>KF301-5.0-2P</t>
+  </si>
+  <si>
+    <t>MO-100</t>
+  </si>
+  <si>
+    <t>PLD 3x2</t>
+  </si>
+  <si>
+    <t>R2; R6-R12</t>
+  </si>
+  <si>
+    <t>R13-R15</t>
+  </si>
+  <si>
+    <t>R3-R5</t>
+  </si>
+  <si>
+    <t>Q1-Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    J1 - J4; J6 - J10</t>
+  </si>
+  <si>
+    <t>R16-R18</t>
+  </si>
+  <si>
+    <t>R19-R21</t>
+  </si>
+  <si>
+    <t>R22</t>
+  </si>
+  <si>
+    <t>0 Omh</t>
+  </si>
+  <si>
+    <t>150 k</t>
+  </si>
+  <si>
+    <t>10 k</t>
+  </si>
+  <si>
+    <t>16 MHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220 Omh </t>
+  </si>
+  <si>
+    <t>330 Omh 1w</t>
+  </si>
+  <si>
+    <t>390 Omh 1w</t>
+  </si>
+  <si>
+    <t>39 Omh 1w</t>
+  </si>
+  <si>
+    <t>DEBF33D103ZA3B</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/32792690582.html?spm=a2g0o.productlist.0.0.685d12cdzq3T1A&amp;algo_pvid=2acdf002-4530-4d52-8dfc-d32194dd4014&amp;algo_expid=2acdf002-4530-4d52-8dfc-d32194dd4014-25&amp;btsid=632ddbf6-a902-46a0-9a0e-a1437a41403e&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,16 +212,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,28 +503,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -501,210 +537,234 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1">
-        <v>220</v>
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1">
-        <v>330</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1">
-        <v>390</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1" display="https://aliexpress.ru/item/32792690582.html?spm=a2g0o.productlist.0.0.685d12cdzq3T1A&amp;algo_pvid=2acdf002-4530-4d52-8dfc-d32194dd4014&amp;algo_expid=2acdf002-4530-4d52-8dfc-d32194dd4014-25&amp;btsid=632ddbf6-a902-46a0-9a0e-a1437a41403e&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>22p</t>
   </si>
@@ -63,9 +63,6 @@
     <t xml:space="preserve">    Y1</t>
   </si>
   <si>
-    <t>LED_D3.0mm</t>
-  </si>
-  <si>
     <t xml:space="preserve">    D1-D4</t>
   </si>
   <si>
@@ -105,18 +102,9 @@
     <t>220V 0.5A</t>
   </si>
   <si>
-    <t>MF02S84-0500</t>
-  </si>
-  <si>
     <t>KF301-5.0-2P</t>
   </si>
   <si>
-    <t>MO-100</t>
-  </si>
-  <si>
-    <t>PLD 3x2</t>
-  </si>
-  <si>
     <t>R2; R6-R12</t>
   </si>
   <si>
@@ -171,14 +159,41 @@
     <t>Q4</t>
   </si>
   <si>
-    <t>https://aliexpress.ru/item/32792690582.html?spm=a2g0o.productlist.0.0.685d12cdzq3T1A&amp;algo_pvid=2acdf002-4530-4d52-8dfc-d32194dd4014&amp;algo_expid=2acdf002-4530-4d52-8dfc-d32194dd4014-25&amp;btsid=632ddbf6-a902-46a0-9a0e-a1437a41403e&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53</t>
+    <t>Aliexpress</t>
+  </si>
+  <si>
+    <t>5TE.05002R1BT</t>
+  </si>
+  <si>
+    <t>Cristal</t>
+  </si>
+  <si>
+    <t>red LED_D3.0mm</t>
+  </si>
+  <si>
+    <t>204-10SURD/S530-A3</t>
+  </si>
+  <si>
+    <t>Pin header 2*3pin 2.54mm</t>
+  </si>
+  <si>
+    <t>RD 1WS 39R J T/B A1</t>
+  </si>
+  <si>
+    <t>Axial,3.3x9.2mm</t>
+  </si>
+  <si>
+    <t>RD 1WS 330R J T/B A1</t>
+  </si>
+  <si>
+    <t>Button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,11 +202,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -203,7 +242,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -211,17 +250,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -506,7 +566,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,257 +574,276 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="D21" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1" display="https://aliexpress.ru/item/32792690582.html?spm=a2g0o.productlist.0.0.685d12cdzq3T1A&amp;algo_pvid=2acdf002-4530-4d52-8dfc-d32194dd4014&amp;algo_expid=2acdf002-4530-4d52-8dfc-d32194dd4014-25&amp;btsid=632ddbf6-a902-46a0-9a0e-a1437a41403e&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D20" r:id="rId4"/>
+    <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="D16" r:id="rId6"/>
+    <hyperlink ref="D14" r:id="rId7"/>
+    <hyperlink ref="D17" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>22p</t>
   </si>
@@ -187,18 +187,32 @@
   </si>
   <si>
     <t>Button</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>AC-DC power supply 5V 700mA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,20 +282,26 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -566,7 +586,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,9 +708,13 @@
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -834,14 +858,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" display="https://aliexpress.ru/item/32792690582.html?spm=a2g0o.productlist.0.0.685d12cdzq3T1A&amp;algo_pvid=2acdf002-4530-4d52-8dfc-d32194dd4014&amp;algo_expid=2acdf002-4530-4d52-8dfc-d32194dd4014-25&amp;btsid=632ddbf6-a902-46a0-9a0e-a1437a41403e&amp;ws_ab_test=searchweb0_0,searchweb201602_1,searchweb201603_53"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="D20" r:id="rId4"/>
-    <hyperlink ref="D5" r:id="rId5"/>
-    <hyperlink ref="D16" r:id="rId6"/>
-    <hyperlink ref="D14" r:id="rId7"/>
-    <hyperlink ref="D17" r:id="rId8"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D20" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D16" r:id="rId5"/>
+    <hyperlink ref="D14" r:id="rId6"/>
+    <hyperlink ref="D17" r:id="rId7"/>
+    <hyperlink ref="D10" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>22p</t>
   </si>
@@ -159,47 +159,53 @@
     <t>Q4</t>
   </si>
   <si>
-    <t>Aliexpress</t>
-  </si>
-  <si>
     <t>5TE.05002R1BT</t>
   </si>
   <si>
-    <t>Cristal</t>
-  </si>
-  <si>
     <t>red LED_D3.0mm</t>
   </si>
   <si>
-    <t>204-10SURD/S530-A3</t>
-  </si>
-  <si>
     <t>Pin header 2*3pin 2.54mm</t>
   </si>
   <si>
-    <t>RD 1WS 39R J T/B A1</t>
-  </si>
-  <si>
     <t>Axial,3.3x9.2mm</t>
   </si>
   <si>
-    <t>RD 1WS 330R J T/B A1</t>
-  </si>
-  <si>
-    <t>Button</t>
-  </si>
-  <si>
     <t>5V</t>
   </si>
   <si>
     <t>AC-DC power supply 5V 700mA</t>
+  </si>
+  <si>
+    <t>C433866</t>
+  </si>
+  <si>
+    <t>C385382</t>
+  </si>
+  <si>
+    <t>C433863</t>
+  </si>
+  <si>
+    <t>Made in China switch DIP4 6*6*4.5MM</t>
+  </si>
+  <si>
+    <t>C353715</t>
+  </si>
+  <si>
+    <t>C99772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aliexpress1 </t>
+  </si>
+  <si>
+    <t>Aliexpress2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,27 +222,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,24 +272,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,10 +584,10 @@
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -608,9 +597,10 @@
       <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -620,9 +610,10 @@
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -630,11 +621,12 @@
         <v>3</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -644,9 +636,10 @@
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -654,13 +647,14 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -668,31 +662,34 @@
         <v>26</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -702,23 +699,27 @@
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -728,9 +729,10 @@
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -740,9 +742,10 @@
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -752,9 +755,10 @@
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -762,13 +766,14 @@
         <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
@@ -776,11 +781,14 @@
         <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -788,13 +796,14 @@
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -802,11 +811,12 @@
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -816,9 +826,10 @@
       <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -828,9 +839,10 @@
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -840,11 +852,12 @@
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
@@ -855,19 +868,17 @@
         <v>24</v>
       </c>
       <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2"/>
-    <hyperlink ref="D20" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D16" r:id="rId5"/>
-    <hyperlink ref="D14" r:id="rId6"/>
-    <hyperlink ref="D17" r:id="rId7"/>
-    <hyperlink ref="D10" r:id="rId8"/>
+    <hyperlink ref="D20" r:id="rId1" display="Cristal"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D10" r:id="rId4"/>
+    <hyperlink ref="E10" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>22p</t>
   </si>
@@ -153,9 +153,6 @@
     <t>39 Omh 1w</t>
   </si>
   <si>
-    <t>DEBF33D103ZA3B</t>
-  </si>
-  <si>
     <t>Q4</t>
   </si>
   <si>
@@ -199,6 +196,12 @@
   </si>
   <si>
     <t>Aliexpress2</t>
+  </si>
+  <si>
+    <t>C263258</t>
+  </si>
+  <si>
+    <t>CY2103MD1IEF4CC0A8</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,9 +623,11 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="D3" s="4" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -647,10 +652,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -663,7 +668,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -684,7 +689,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -704,19 +709,19 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -766,10 +771,10 @@
         <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -781,10 +786,10 @@
         <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="4"/>
     </row>
@@ -796,10 +801,10 @@
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="4"/>
     </row>
@@ -812,7 +817,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="4"/>
     </row>
@@ -853,7 +858,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="4"/>
     </row>
@@ -873,12 +878,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D20" r:id="rId1" display="Cristal"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="D10" r:id="rId4"/>
-    <hyperlink ref="E10" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D10" r:id="rId3"/>
+    <hyperlink ref="E10" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>